--- a/Documents/Detail Design/K0001/K0001_ScreenLayout.xlsx
+++ b/Documents/Detail Design/K0001/K0001_ScreenLayout.xlsx
@@ -1301,7 +1301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1552,7 +1552,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,6 +1604,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,569 +1924,444 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161192</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>53486</xdr:rowOff>
+      <xdr:rowOff>105440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>149469</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23446</xdr:rowOff>
+      <xdr:colOff>149468</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="545523" y="2287531"/>
+          <a:ext cx="6193513" cy="1002924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140528</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39807</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90814</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="518380" y="2220424"/>
-          <a:ext cx="6108089" cy="434303"/>
-          <a:chOff x="495300" y="2781300"/>
-          <a:chExt cx="6172200" cy="428626"/>
+          <a:off x="867892" y="2311498"/>
+          <a:ext cx="1172165" cy="273134"/>
+          <a:chOff x="4106265" y="2224335"/>
+          <a:chExt cx="431559" cy="324756"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="495300" y="2781300"/>
-            <a:ext cx="6172200" cy="428626"/>
-            <a:chOff x="561975" y="2295525"/>
-            <a:chExt cx="6172200" cy="428626"/>
+            <a:off x="4106265" y="2224340"/>
+            <a:ext cx="265616" cy="324751"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Rectangle 7"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="561975" y="2295525"/>
-              <a:ext cx="6172200" cy="428626"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800"/>
+              <a:t>check</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" baseline="0"/>
+              <a:t> in</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4377986" y="2224335"/>
+            <a:ext cx="159838" cy="313526"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Down Arrow 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4410421" y="2302243"/>
+            <a:ext cx="99966" cy="179471"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="9" name="Group 8"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="902677" y="2374108"/>
-              <a:ext cx="1164250" cy="282712"/>
-              <a:chOff x="4106265" y="2224335"/>
-              <a:chExt cx="431559" cy="324756"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="Rectangle 14"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4106265" y="2224340"/>
-                <a:ext cx="265616" cy="324751"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800"/>
-                  <a:t>check</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" baseline="0"/>
-                  <a:t> in</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="800"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4377986" y="2224335"/>
-                <a:ext cx="159838" cy="313526"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="800"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="Down Arrow 16"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4410421" y="2302243"/>
-                <a:ext cx="99966" cy="179471"/>
-              </a:xfrm>
-              <a:prstGeom prst="downArrow">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="800"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="10" name="Group 9"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="2140585" y="2385312"/>
-              <a:ext cx="2288538" cy="281225"/>
-              <a:chOff x="3555478" y="2246797"/>
-              <a:chExt cx="848305" cy="323048"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="Rectangle 11"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3555478" y="2246797"/>
-                <a:ext cx="262212" cy="323047"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800"/>
-                  <a:t>checkout</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4268534" y="2258026"/>
-                <a:ext cx="135249" cy="311819"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="Down Arrow 13"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4283740" y="2334027"/>
-                <a:ext cx="98278" cy="157211"/>
-              </a:xfrm>
-              <a:prstGeom prst="downArrow">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4714875" y="2379667"/>
-              <a:ext cx="645667" cy="277123"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Book</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                <a:t> now</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Group 3"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>116690</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>39383</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4706008" y="2316868"/>
+          <a:ext cx="650057" cy="267735"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Book</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> now</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165922</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Group 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2711695" y="2318212"/>
+          <a:ext cx="1182097" cy="275807"/>
+          <a:chOff x="2114217" y="2318212"/>
+          <a:chExt cx="1182097" cy="275807"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="2830107" y="2866833"/>
-            <a:ext cx="1113243" cy="285500"/>
-            <a:chOff x="4822851" y="1775160"/>
-            <a:chExt cx="412652" cy="327959"/>
+            <a:off x="2114217" y="2322322"/>
+            <a:ext cx="712199" cy="271697"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectangle 4"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5006997" y="1786389"/>
-              <a:ext cx="228506" cy="316730"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>people</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4822851" y="1775160"/>
-              <a:ext cx="154912" cy="316732"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Down Arrow 6"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4847127" y="1856071"/>
-              <a:ext cx="99800" cy="151097"/>
-            </a:xfrm>
-            <a:prstGeom prst="downArrow">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800"/>
+              <a:t>checkout</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2875555" y="2318212"/>
+            <a:ext cx="420759" cy="266386"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Down Arrow 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2941492" y="2386262"/>
+            <a:ext cx="271069" cy="127079"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2555,8 +2439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="902494" y="5726906"/>
-          <a:ext cx="5388769" cy="1393032"/>
+          <a:off x="918730" y="5766955"/>
+          <a:ext cx="5478606" cy="1402772"/>
           <a:chOff x="914317" y="5019675"/>
           <a:chExt cx="5410283" cy="1371600"/>
         </a:xfrm>
@@ -3029,16 +2913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>3464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3047,17 +2931,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="3067050"/>
-          <a:ext cx="2390775" cy="381000"/>
+          <a:off x="8229600" y="3569277"/>
+          <a:ext cx="2402032" cy="387927"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 16250"/>
-            <a:gd name="adj2" fmla="val -763"/>
-            <a:gd name="adj3" fmla="val 23750"/>
-            <a:gd name="adj4" fmla="val -56109"/>
-            <a:gd name="adj5" fmla="val 300000"/>
-            <a:gd name="adj6" fmla="val -188607"/>
+            <a:gd name="adj1" fmla="val 51965"/>
+            <a:gd name="adj2" fmla="val -1845"/>
+            <a:gd name="adj3" fmla="val 204554"/>
+            <a:gd name="adj4" fmla="val -49260"/>
+            <a:gd name="adj5" fmla="val 197321"/>
+            <a:gd name="adj6" fmla="val -182479"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3266,7 +3150,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Trôi theo scrollbar</a:t>
+            <a:t>Trôi theo scrollbar. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -3700,16 +3584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41964</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138547</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>46626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3718,8 +3602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3399692" y="2271346"/>
-          <a:ext cx="1091712" cy="315058"/>
+          <a:off x="769328" y="2688981"/>
+          <a:ext cx="823946" cy="319054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3760,14 +3644,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>117230</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143206</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112567</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
@@ -3778,8 +3662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2132134" y="2271346"/>
-          <a:ext cx="1179635" cy="315058"/>
+          <a:off x="2688979" y="2299322"/>
+          <a:ext cx="1285543" cy="319054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4709,16 +4593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>82062</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129686</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>159993</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4727,8 +4611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="2469173"/>
-          <a:ext cx="419100" cy="276225"/>
+          <a:off x="470922" y="2336623"/>
+          <a:ext cx="416435" cy="278223"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4778,16 +4662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>79131</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>13188</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>131885</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>135547</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45293</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4796,8 +4680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2094035" y="2475034"/>
-          <a:ext cx="419100" cy="276225"/>
+          <a:off x="2356471" y="2177960"/>
+          <a:ext cx="416436" cy="278223"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4847,16 +4731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>63012</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>41030</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2398</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>115765</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55151</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4865,8 +4749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3360127" y="2502876"/>
-          <a:ext cx="419100" cy="276225"/>
+          <a:off x="547921" y="2915847"/>
+          <a:ext cx="416435" cy="280221"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4916,16 +4800,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>112835</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>134815</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>156130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>117230</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103309</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>160525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146604</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4934,8 +4818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="2596661"/>
-          <a:ext cx="553915" cy="276225"/>
+          <a:off x="5290971" y="2204338"/>
+          <a:ext cx="549918" cy="280221"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4994,246 +4878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104044</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104042</xdr:rowOff>
+      <xdr:colOff>167852</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72536</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Oval 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1569429" y="3027484"/>
-          <a:ext cx="562706" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139213</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>41764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Oval 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3069982" y="3919904"/>
-          <a:ext cx="593480" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137013</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Oval 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2813538" y="4630615"/>
-          <a:ext cx="571500" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124557</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>27110</xdr:rowOff>
+      <xdr:rowOff>105043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5242,8 +4895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1589942" y="5443904"/>
-          <a:ext cx="520211" cy="276225"/>
+          <a:off x="1622579" y="4033139"/>
+          <a:ext cx="516215" cy="280222"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5301,16 +4954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130419</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87123</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25645</xdr:rowOff>
+      <xdr:colOff>145871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120895</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5319,8 +4972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2878015" y="5442439"/>
-          <a:ext cx="609599" cy="276225"/>
+          <a:off x="2996578" y="3893128"/>
+          <a:ext cx="604270" cy="280222"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5378,16 +5031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>99646</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>48359</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65009</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>16853</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67941</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5396,8 +5049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4906108" y="5433647"/>
-          <a:ext cx="552450" cy="276225"/>
+          <a:off x="2610782" y="4836836"/>
+          <a:ext cx="548454" cy="280222"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5510,21 +5163,8 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>20</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5587,21 +5227,8 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>21</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5664,6 +5291,742 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
+            <a:t>22</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181839</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>43295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="Group 71"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2363930" y="2762249"/>
+          <a:ext cx="1316183" cy="242455"/>
+          <a:chOff x="2121476" y="2753590"/>
+          <a:chExt cx="1316183" cy="242455"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rectangle 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2121476" y="2753590"/>
+            <a:ext cx="736024" cy="242455"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="Left Arrow 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2147454" y="2779568"/>
+            <a:ext cx="95250" cy="147205"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="Right Arrow 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2710295" y="2779568"/>
+            <a:ext cx="112569" cy="164523"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="TextBox 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2883478" y="2770909"/>
+            <a:ext cx="554181" cy="216477"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>adults</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831273" y="2762250"/>
+          <a:ext cx="710045" cy="207819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Room 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>126556</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>62145</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="Group 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4352192" y="2781099"/>
+          <a:ext cx="1432081" cy="242455"/>
+          <a:chOff x="2121476" y="2753590"/>
+          <a:chExt cx="1432081" cy="242455"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Rectangle 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2121476" y="2753590"/>
+            <a:ext cx="736024" cy="242455"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="Left Arrow 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2147454" y="2779568"/>
+            <a:ext cx="95250" cy="147205"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="Right Arrow 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2710295" y="2779568"/>
+            <a:ext cx="112569" cy="164523"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="TextBox 76"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2883478" y="2770909"/>
+            <a:ext cx="670079" cy="216477"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>childrens</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2317305" y="2711827"/>
+          <a:ext cx="1406104" cy="319054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4334873" y="2729145"/>
+          <a:ext cx="1501354" cy="319054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="TextBox 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="3065317"/>
+          <a:ext cx="762000" cy="207819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>add room</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121361</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134548</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2121611" y="2987520"/>
+          <a:ext cx="558710" cy="280221"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
             <a:t>1</a:t>
           </a:r>
           <a:r>
@@ -5672,12 +6035,456 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139214</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Oval 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4364850" y="2939427"/>
+          <a:ext cx="588150" cy="280222"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13989</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Oval 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1105034" y="3261812"/>
+          <a:ext cx="567503" cy="278224"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>72204</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Oval 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1705841" y="5541818"/>
+          <a:ext cx="548454" cy="280222"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>54885</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>46426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Oval 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143249" y="5533159"/>
+          <a:ext cx="548454" cy="280222"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>16785</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Oval 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148695" y="5538355"/>
+          <a:ext cx="548454" cy="280222"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>43294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line Callout 1 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7723908" y="2909456"/>
+          <a:ext cx="3082637" cy="632111"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35188"/>
+            <a:gd name="adj2" fmla="val -1311"/>
+            <a:gd name="adj3" fmla="val 82331"/>
+            <a:gd name="adj4" fmla="val -198882"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Khi ấn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> vào add room sẽ tạo ra thêm 1 phòng cho book.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tối đa được book 4 phòng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5952,8 +6759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="BD60" sqref="BD60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -5962,210 +6769,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="149" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="128" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="129"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="131" t="s">
+      <c r="T1" s="131"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="137" t="s">
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="138">
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="140">
         <v>42982</v>
       </c>
-      <c r="AI1" s="139"/>
-      <c r="AJ1" s="139"/>
-      <c r="AK1" s="139"/>
-      <c r="AL1" s="125" t="s">
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="126" t="s">
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="128" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="129"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="131" t="s">
+      <c r="T3" s="131"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="137" t="s">
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="141"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="137"/>
-      <c r="AN4" s="137"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="139"/>
-      <c r="AR4" s="139"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="141"/>
+      <c r="AI4" s="141"/>
+      <c r="AJ4" s="141"/>
+      <c r="AK4" s="141"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="139"/>
+      <c r="AN4" s="139"/>
+      <c r="AO4" s="141"/>
+      <c r="AP4" s="141"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="141"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
       <c r="B6" s="103" t="s">
@@ -6441,9 +7248,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="102" t="s">
-        <v>17</v>
-      </c>
+      <c r="K19" s="102"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
       <c r="N19" s="102"/>
@@ -6767,9 +7572,11 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="K28" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6803,9 +7610,9 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -7710,24 +8517,24 @@
       <c r="L54" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="124"/>
-      <c r="AA54" s="124"/>
-      <c r="AB54" s="124"/>
-      <c r="AC54" s="124"/>
-      <c r="AD54" s="124"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="125"/>
+      <c r="V54" s="125"/>
+      <c r="W54" s="125"/>
+      <c r="X54" s="125"/>
+      <c r="Y54" s="125"/>
+      <c r="Z54" s="125"/>
+      <c r="AA54" s="125"/>
+      <c r="AB54" s="125"/>
+      <c r="AC54" s="125"/>
+      <c r="AD54" s="120"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
@@ -7745,25 +8552,25 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="124"/>
-      <c r="AA55" s="124"/>
-      <c r="AB55" s="124"/>
-      <c r="AC55" s="124"/>
-      <c r="AD55" s="124"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="126"/>
+      <c r="Y55" s="126"/>
+      <c r="Z55" s="126"/>
+      <c r="AA55" s="126"/>
+      <c r="AB55" s="126"/>
+      <c r="AC55" s="126"/>
+      <c r="AD55" s="122"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
@@ -7845,7 +8652,7 @@
       <c r="AK57" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A1:H4"/>
     <mergeCell ref="I1:R4"/>
     <mergeCell ref="S1:U2"/>
@@ -7863,6 +8670,7 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="K28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="portrait" r:id="rId1"/>
@@ -9352,258 +10160,258 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="252" t="s">
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="255" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="242" t="s">
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="244"/>
-      <c r="AM2" s="245" t="s">
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="247"/>
+      <c r="AM2" s="248" t="s">
         <v>89</v>
       </c>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="247"/>
-      <c r="AW2" s="235" t="s">
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="249"/>
+      <c r="AQ2" s="250"/>
+      <c r="AW2" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="235"/>
-      <c r="AY2" s="235"/>
-      <c r="AZ2" s="251" t="s">
+      <c r="AX2" s="238"/>
+      <c r="AY2" s="238"/>
+      <c r="AZ2" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="BA2" s="252"/>
-      <c r="BB2" s="252"/>
-      <c r="BC2" s="252"/>
-      <c r="BD2" s="240" t="s">
+      <c r="BA2" s="255"/>
+      <c r="BB2" s="255"/>
+      <c r="BC2" s="255"/>
+      <c r="BD2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="240"/>
-      <c r="BF2" s="240"/>
-      <c r="BG2" s="241" t="s">
+      <c r="BE2" s="243"/>
+      <c r="BF2" s="243"/>
+      <c r="BG2" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="BH2" s="239"/>
-      <c r="BI2" s="239"/>
-      <c r="BJ2" s="239"/>
+      <c r="BH2" s="242"/>
+      <c r="BI2" s="242"/>
+      <c r="BJ2" s="242"/>
     </row>
     <row r="3" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="243"/>
-      <c r="AE3" s="244"/>
-      <c r="AM3" s="248"/>
-      <c r="AN3" s="249"/>
-      <c r="AO3" s="249"/>
-      <c r="AP3" s="249"/>
-      <c r="AQ3" s="250"/>
-      <c r="AW3" s="235"/>
-      <c r="AX3" s="235"/>
-      <c r="AY3" s="235"/>
-      <c r="AZ3" s="252"/>
-      <c r="BA3" s="252"/>
-      <c r="BB3" s="252"/>
-      <c r="BC3" s="252"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="239"/>
-      <c r="BH3" s="239"/>
-      <c r="BI3" s="239"/>
-      <c r="BJ3" s="239"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="255"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="247"/>
+      <c r="AM3" s="251"/>
+      <c r="AN3" s="252"/>
+      <c r="AO3" s="252"/>
+      <c r="AP3" s="252"/>
+      <c r="AQ3" s="253"/>
+      <c r="AW3" s="238"/>
+      <c r="AX3" s="238"/>
+      <c r="AY3" s="238"/>
+      <c r="AZ3" s="255"/>
+      <c r="BA3" s="255"/>
+      <c r="BB3" s="255"/>
+      <c r="BC3" s="255"/>
+      <c r="BD3" s="243"/>
+      <c r="BE3" s="243"/>
+      <c r="BF3" s="243"/>
+      <c r="BG3" s="242"/>
+      <c r="BH3" s="242"/>
+      <c r="BI3" s="242"/>
+      <c r="BJ3" s="242"/>
     </row>
     <row r="4" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="252"/>
-      <c r="R4" s="252"/>
-      <c r="S4" s="252"/>
-      <c r="T4" s="252"/>
-      <c r="U4" s="242" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="255"/>
+      <c r="Q4" s="255"/>
+      <c r="R4" s="255"/>
+      <c r="S4" s="255"/>
+      <c r="T4" s="255"/>
+      <c r="U4" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="244"/>
-      <c r="AM4" s="245" t="s">
+      <c r="V4" s="246"/>
+      <c r="W4" s="246"/>
+      <c r="X4" s="246"/>
+      <c r="Y4" s="246"/>
+      <c r="Z4" s="246"/>
+      <c r="AA4" s="246"/>
+      <c r="AB4" s="246"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="246"/>
+      <c r="AE4" s="247"/>
+      <c r="AM4" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" s="246"/>
-      <c r="AO4" s="246"/>
-      <c r="AP4" s="246"/>
-      <c r="AQ4" s="247"/>
-      <c r="AW4" s="235" t="s">
+      <c r="AN4" s="249"/>
+      <c r="AO4" s="249"/>
+      <c r="AP4" s="249"/>
+      <c r="AQ4" s="250"/>
+      <c r="AW4" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="235"/>
-      <c r="AY4" s="235"/>
-      <c r="AZ4" s="251"/>
-      <c r="BA4" s="252"/>
-      <c r="BB4" s="252"/>
-      <c r="BC4" s="252"/>
-      <c r="BD4" s="235"/>
-      <c r="BE4" s="235"/>
-      <c r="BF4" s="235"/>
-      <c r="BG4" s="239"/>
-      <c r="BH4" s="239"/>
-      <c r="BI4" s="239"/>
-      <c r="BJ4" s="239"/>
+      <c r="AX4" s="238"/>
+      <c r="AY4" s="238"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="255"/>
+      <c r="BB4" s="255"/>
+      <c r="BC4" s="255"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="242"/>
+      <c r="BH4" s="242"/>
+      <c r="BI4" s="242"/>
+      <c r="BJ4" s="242"/>
     </row>
     <row r="5" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="243"/>
-      <c r="W5" s="243"/>
-      <c r="X5" s="243"/>
-      <c r="Y5" s="243"/>
-      <c r="Z5" s="243"/>
-      <c r="AA5" s="243"/>
-      <c r="AB5" s="243"/>
-      <c r="AC5" s="243"/>
-      <c r="AD5" s="243"/>
-      <c r="AE5" s="244"/>
-      <c r="AM5" s="248"/>
-      <c r="AN5" s="249"/>
-      <c r="AO5" s="249"/>
-      <c r="AP5" s="249"/>
-      <c r="AQ5" s="250"/>
-      <c r="AW5" s="235"/>
-      <c r="AX5" s="235"/>
-      <c r="AY5" s="235"/>
-      <c r="AZ5" s="252"/>
-      <c r="BA5" s="252"/>
-      <c r="BB5" s="252"/>
-      <c r="BC5" s="252"/>
-      <c r="BD5" s="235"/>
-      <c r="BE5" s="235"/>
-      <c r="BF5" s="235"/>
-      <c r="BG5" s="239"/>
-      <c r="BH5" s="239"/>
-      <c r="BI5" s="239"/>
-      <c r="BJ5" s="239"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="256"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="255"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="255"/>
+      <c r="T5" s="255"/>
+      <c r="U5" s="245"/>
+      <c r="V5" s="246"/>
+      <c r="W5" s="246"/>
+      <c r="X5" s="246"/>
+      <c r="Y5" s="246"/>
+      <c r="Z5" s="246"/>
+      <c r="AA5" s="246"/>
+      <c r="AB5" s="246"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="246"/>
+      <c r="AE5" s="247"/>
+      <c r="AM5" s="251"/>
+      <c r="AN5" s="252"/>
+      <c r="AO5" s="252"/>
+      <c r="AP5" s="252"/>
+      <c r="AQ5" s="253"/>
+      <c r="AW5" s="238"/>
+      <c r="AX5" s="238"/>
+      <c r="AY5" s="238"/>
+      <c r="AZ5" s="255"/>
+      <c r="BA5" s="255"/>
+      <c r="BB5" s="255"/>
+      <c r="BC5" s="255"/>
+      <c r="BD5" s="238"/>
+      <c r="BE5" s="238"/>
+      <c r="BF5" s="238"/>
+      <c r="BG5" s="242"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="242"/>
+      <c r="BJ5" s="242"/>
     </row>
     <row r="7" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="236" t="s">
+      <c r="C7" s="238"/>
+      <c r="D7" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="238"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="235"/>
-      <c r="D8" s="239" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
     </row>
     <row r="10" spans="2:75" ht="12.95" customHeight="1">
       <c r="B10" s="15"/>
@@ -10291,89 +11099,89 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="168" t="s">
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="169"/>
-      <c r="N18" s="228" t="s">
+      <c r="M18" s="172"/>
+      <c r="N18" s="231" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="172"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="175"/>
       <c r="R18" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="229"/>
-      <c r="T18" s="230"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="228"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="231"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="171"/>
-      <c r="AJ18" s="171"/>
-      <c r="AK18" s="171"/>
-      <c r="AL18" s="231"/>
-      <c r="AM18" s="232"/>
-      <c r="AN18" s="233"/>
-      <c r="AO18" s="233"/>
-      <c r="AP18" s="233"/>
-      <c r="AQ18" s="234"/>
-      <c r="AR18" s="225"/>
-      <c r="AS18" s="226"/>
-      <c r="AT18" s="226"/>
-      <c r="AU18" s="226"/>
-      <c r="AV18" s="227"/>
-      <c r="AW18" s="219"/>
-      <c r="AX18" s="220"/>
-      <c r="AY18" s="220"/>
-      <c r="AZ18" s="220"/>
-      <c r="BA18" s="221"/>
-      <c r="BB18" s="219"/>
-      <c r="BC18" s="220"/>
-      <c r="BD18" s="220"/>
-      <c r="BE18" s="220"/>
-      <c r="BF18" s="221"/>
-      <c r="BG18" s="165" t="s">
+      <c r="S18" s="232"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="231"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="234"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="234"/>
+      <c r="AM18" s="235"/>
+      <c r="AN18" s="236"/>
+      <c r="AO18" s="236"/>
+      <c r="AP18" s="236"/>
+      <c r="AQ18" s="237"/>
+      <c r="AR18" s="228"/>
+      <c r="AS18" s="229"/>
+      <c r="AT18" s="229"/>
+      <c r="AU18" s="229"/>
+      <c r="AV18" s="230"/>
+      <c r="AW18" s="222"/>
+      <c r="AX18" s="223"/>
+      <c r="AY18" s="223"/>
+      <c r="AZ18" s="223"/>
+      <c r="BA18" s="224"/>
+      <c r="BB18" s="222"/>
+      <c r="BC18" s="223"/>
+      <c r="BD18" s="223"/>
+      <c r="BE18" s="223"/>
+      <c r="BF18" s="224"/>
+      <c r="BG18" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH18" s="166"/>
-      <c r="BI18" s="166"/>
-      <c r="BJ18" s="166"/>
-      <c r="BK18" s="166"/>
-      <c r="BL18" s="166"/>
-      <c r="BM18" s="167"/>
-      <c r="BN18" s="219"/>
-      <c r="BO18" s="220"/>
-      <c r="BP18" s="220"/>
-      <c r="BQ18" s="220"/>
-      <c r="BR18" s="221"/>
-      <c r="BS18" s="219">
+      <c r="BH18" s="169"/>
+      <c r="BI18" s="169"/>
+      <c r="BJ18" s="169"/>
+      <c r="BK18" s="169"/>
+      <c r="BL18" s="169"/>
+      <c r="BM18" s="170"/>
+      <c r="BN18" s="222"/>
+      <c r="BO18" s="223"/>
+      <c r="BP18" s="223"/>
+      <c r="BQ18" s="223"/>
+      <c r="BR18" s="224"/>
+      <c r="BS18" s="222">
         <v>1</v>
       </c>
-      <c r="BT18" s="220"/>
-      <c r="BU18" s="220"/>
-      <c r="BV18" s="220"/>
-      <c r="BW18" s="221"/>
+      <c r="BT18" s="223"/>
+      <c r="BU18" s="223"/>
+      <c r="BV18" s="223"/>
+      <c r="BW18" s="224"/>
       <c r="BX18" s="14"/>
       <c r="BY18" s="14"/>
     </row>
@@ -10384,93 +11192,93 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="176" t="s">
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="177"/>
-      <c r="N19" s="179" t="s">
+      <c r="M19" s="180"/>
+      <c r="N19" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="180"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="181"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="184"/>
       <c r="R19" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="155">
+      <c r="S19" s="158">
         <v>20</v>
       </c>
-      <c r="T19" s="156"/>
-      <c r="U19" s="182" t="s">
+      <c r="T19" s="159"/>
+      <c r="U19" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="180"/>
-      <c r="W19" s="180"/>
-      <c r="X19" s="180"/>
-      <c r="Y19" s="181"/>
-      <c r="Z19" s="179"/>
-      <c r="AA19" s="180"/>
-      <c r="AB19" s="180"/>
-      <c r="AC19" s="180"/>
-      <c r="AD19" s="180"/>
-      <c r="AE19" s="183"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="180"/>
-      <c r="AJ19" s="180"/>
-      <c r="AK19" s="180"/>
-      <c r="AL19" s="183"/>
-      <c r="AM19" s="215"/>
-      <c r="AN19" s="216"/>
-      <c r="AO19" s="216"/>
-      <c r="AP19" s="216"/>
-      <c r="AQ19" s="217"/>
-      <c r="AR19" s="184"/>
-      <c r="AS19" s="185"/>
-      <c r="AT19" s="185"/>
-      <c r="AU19" s="185"/>
-      <c r="AV19" s="186"/>
-      <c r="AW19" s="187"/>
-      <c r="AX19" s="188"/>
-      <c r="AY19" s="188"/>
-      <c r="AZ19" s="188"/>
-      <c r="BA19" s="189"/>
-      <c r="BB19" s="184"/>
-      <c r="BC19" s="185"/>
-      <c r="BD19" s="185"/>
-      <c r="BE19" s="185"/>
-      <c r="BF19" s="186"/>
-      <c r="BG19" s="165" t="s">
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="184"/>
+      <c r="Z19" s="182"/>
+      <c r="AA19" s="183"/>
+      <c r="AB19" s="183"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="185"/>
+      <c r="AG19" s="183"/>
+      <c r="AH19" s="183"/>
+      <c r="AI19" s="183"/>
+      <c r="AJ19" s="183"/>
+      <c r="AK19" s="183"/>
+      <c r="AL19" s="186"/>
+      <c r="AM19" s="218"/>
+      <c r="AN19" s="219"/>
+      <c r="AO19" s="219"/>
+      <c r="AP19" s="219"/>
+      <c r="AQ19" s="220"/>
+      <c r="AR19" s="187"/>
+      <c r="AS19" s="188"/>
+      <c r="AT19" s="188"/>
+      <c r="AU19" s="188"/>
+      <c r="AV19" s="189"/>
+      <c r="AW19" s="190"/>
+      <c r="AX19" s="191"/>
+      <c r="AY19" s="191"/>
+      <c r="AZ19" s="191"/>
+      <c r="BA19" s="192"/>
+      <c r="BB19" s="187"/>
+      <c r="BC19" s="188"/>
+      <c r="BD19" s="188"/>
+      <c r="BE19" s="188"/>
+      <c r="BF19" s="189"/>
+      <c r="BG19" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH19" s="166"/>
-      <c r="BI19" s="166"/>
-      <c r="BJ19" s="166"/>
-      <c r="BK19" s="166"/>
-      <c r="BL19" s="166"/>
-      <c r="BM19" s="167"/>
-      <c r="BN19" s="187"/>
-      <c r="BO19" s="188"/>
-      <c r="BP19" s="188"/>
-      <c r="BQ19" s="188"/>
-      <c r="BR19" s="189"/>
-      <c r="BS19" s="219">
+      <c r="BH19" s="169"/>
+      <c r="BI19" s="169"/>
+      <c r="BJ19" s="169"/>
+      <c r="BK19" s="169"/>
+      <c r="BL19" s="169"/>
+      <c r="BM19" s="170"/>
+      <c r="BN19" s="190"/>
+      <c r="BO19" s="191"/>
+      <c r="BP19" s="191"/>
+      <c r="BQ19" s="191"/>
+      <c r="BR19" s="192"/>
+      <c r="BS19" s="222">
         <v>2</v>
       </c>
-      <c r="BT19" s="220"/>
-      <c r="BU19" s="220"/>
-      <c r="BV19" s="220"/>
-      <c r="BW19" s="221"/>
+      <c r="BT19" s="223"/>
+      <c r="BU19" s="223"/>
+      <c r="BV19" s="223"/>
+      <c r="BW19" s="224"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
     </row>
@@ -10481,93 +11289,93 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="182" t="s">
+      <c r="E20" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="176" t="s">
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="177"/>
-      <c r="N20" s="179" t="s">
+      <c r="M20" s="180"/>
+      <c r="N20" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="180"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="181"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="184"/>
       <c r="R20" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S20" s="155">
+      <c r="S20" s="158">
         <v>20</v>
       </c>
-      <c r="T20" s="156"/>
-      <c r="U20" s="182" t="s">
+      <c r="T20" s="159"/>
+      <c r="U20" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="180"/>
-      <c r="W20" s="180"/>
-      <c r="X20" s="180"/>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="179"/>
-      <c r="AA20" s="180"/>
-      <c r="AB20" s="180"/>
-      <c r="AC20" s="180"/>
-      <c r="AD20" s="180"/>
-      <c r="AE20" s="183"/>
-      <c r="AF20" s="184"/>
-      <c r="AG20" s="185"/>
-      <c r="AH20" s="185"/>
-      <c r="AI20" s="185"/>
-      <c r="AJ20" s="185"/>
-      <c r="AK20" s="185"/>
-      <c r="AL20" s="186"/>
-      <c r="AM20" s="215"/>
-      <c r="AN20" s="216"/>
-      <c r="AO20" s="216"/>
-      <c r="AP20" s="216"/>
-      <c r="AQ20" s="217"/>
-      <c r="AR20" s="184"/>
-      <c r="AS20" s="185"/>
-      <c r="AT20" s="185"/>
-      <c r="AU20" s="185"/>
-      <c r="AV20" s="186"/>
-      <c r="AW20" s="184"/>
-      <c r="AX20" s="185"/>
-      <c r="AY20" s="185"/>
-      <c r="AZ20" s="185"/>
-      <c r="BA20" s="186"/>
-      <c r="BB20" s="184"/>
-      <c r="BC20" s="185"/>
-      <c r="BD20" s="185"/>
-      <c r="BE20" s="185"/>
-      <c r="BF20" s="186"/>
-      <c r="BG20" s="165" t="s">
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="184"/>
+      <c r="Z20" s="182"/>
+      <c r="AA20" s="183"/>
+      <c r="AB20" s="183"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="186"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="188"/>
+      <c r="AH20" s="188"/>
+      <c r="AI20" s="188"/>
+      <c r="AJ20" s="188"/>
+      <c r="AK20" s="188"/>
+      <c r="AL20" s="189"/>
+      <c r="AM20" s="218"/>
+      <c r="AN20" s="219"/>
+      <c r="AO20" s="219"/>
+      <c r="AP20" s="219"/>
+      <c r="AQ20" s="220"/>
+      <c r="AR20" s="187"/>
+      <c r="AS20" s="188"/>
+      <c r="AT20" s="188"/>
+      <c r="AU20" s="188"/>
+      <c r="AV20" s="189"/>
+      <c r="AW20" s="187"/>
+      <c r="AX20" s="188"/>
+      <c r="AY20" s="188"/>
+      <c r="AZ20" s="188"/>
+      <c r="BA20" s="189"/>
+      <c r="BB20" s="187"/>
+      <c r="BC20" s="188"/>
+      <c r="BD20" s="188"/>
+      <c r="BE20" s="188"/>
+      <c r="BF20" s="189"/>
+      <c r="BG20" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH20" s="166"/>
-      <c r="BI20" s="166"/>
-      <c r="BJ20" s="166"/>
-      <c r="BK20" s="166"/>
-      <c r="BL20" s="166"/>
-      <c r="BM20" s="167"/>
-      <c r="BN20" s="184"/>
-      <c r="BO20" s="185"/>
-      <c r="BP20" s="185"/>
-      <c r="BQ20" s="185"/>
-      <c r="BR20" s="186"/>
-      <c r="BS20" s="219">
+      <c r="BH20" s="169"/>
+      <c r="BI20" s="169"/>
+      <c r="BJ20" s="169"/>
+      <c r="BK20" s="169"/>
+      <c r="BL20" s="169"/>
+      <c r="BM20" s="170"/>
+      <c r="BN20" s="187"/>
+      <c r="BO20" s="188"/>
+      <c r="BP20" s="188"/>
+      <c r="BQ20" s="188"/>
+      <c r="BR20" s="189"/>
+      <c r="BS20" s="222">
         <v>3</v>
       </c>
-      <c r="BT20" s="220"/>
-      <c r="BU20" s="220"/>
-      <c r="BV20" s="220"/>
-      <c r="BW20" s="221"/>
+      <c r="BT20" s="223"/>
+      <c r="BU20" s="223"/>
+      <c r="BV20" s="223"/>
+      <c r="BW20" s="224"/>
       <c r="BX20" s="14"/>
       <c r="BY20" s="14"/>
     </row>
@@ -10578,93 +11386,93 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="182" t="s">
+      <c r="E21" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="176" t="s">
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="177"/>
-      <c r="N21" s="179" t="s">
+      <c r="M21" s="180"/>
+      <c r="N21" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="180"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="181"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="184"/>
       <c r="R21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="155">
+      <c r="S21" s="158">
         <v>20</v>
       </c>
-      <c r="T21" s="156"/>
-      <c r="U21" s="182" t="s">
+      <c r="T21" s="159"/>
+      <c r="U21" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V21" s="180"/>
-      <c r="W21" s="180"/>
-      <c r="X21" s="180"/>
-      <c r="Y21" s="181"/>
-      <c r="Z21" s="179"/>
-      <c r="AA21" s="180"/>
-      <c r="AB21" s="180"/>
-      <c r="AC21" s="180"/>
-      <c r="AD21" s="180"/>
-      <c r="AE21" s="183"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="180"/>
-      <c r="AJ21" s="180"/>
-      <c r="AK21" s="180"/>
-      <c r="AL21" s="183"/>
-      <c r="AM21" s="215"/>
-      <c r="AN21" s="216"/>
-      <c r="AO21" s="216"/>
-      <c r="AP21" s="216"/>
-      <c r="AQ21" s="217"/>
-      <c r="AR21" s="184"/>
-      <c r="AS21" s="185"/>
-      <c r="AT21" s="185"/>
-      <c r="AU21" s="185"/>
-      <c r="AV21" s="186"/>
-      <c r="AW21" s="187"/>
-      <c r="AX21" s="188"/>
-      <c r="AY21" s="188"/>
-      <c r="AZ21" s="188"/>
-      <c r="BA21" s="189"/>
-      <c r="BB21" s="187"/>
-      <c r="BC21" s="188"/>
-      <c r="BD21" s="188"/>
-      <c r="BE21" s="188"/>
-      <c r="BF21" s="189"/>
-      <c r="BG21" s="165" t="s">
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="182"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="186"/>
+      <c r="AF21" s="185"/>
+      <c r="AG21" s="183"/>
+      <c r="AH21" s="183"/>
+      <c r="AI21" s="183"/>
+      <c r="AJ21" s="183"/>
+      <c r="AK21" s="183"/>
+      <c r="AL21" s="186"/>
+      <c r="AM21" s="218"/>
+      <c r="AN21" s="219"/>
+      <c r="AO21" s="219"/>
+      <c r="AP21" s="219"/>
+      <c r="AQ21" s="220"/>
+      <c r="AR21" s="187"/>
+      <c r="AS21" s="188"/>
+      <c r="AT21" s="188"/>
+      <c r="AU21" s="188"/>
+      <c r="AV21" s="189"/>
+      <c r="AW21" s="190"/>
+      <c r="AX21" s="191"/>
+      <c r="AY21" s="191"/>
+      <c r="AZ21" s="191"/>
+      <c r="BA21" s="192"/>
+      <c r="BB21" s="190"/>
+      <c r="BC21" s="191"/>
+      <c r="BD21" s="191"/>
+      <c r="BE21" s="191"/>
+      <c r="BF21" s="192"/>
+      <c r="BG21" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH21" s="166"/>
-      <c r="BI21" s="166"/>
-      <c r="BJ21" s="166"/>
-      <c r="BK21" s="166"/>
-      <c r="BL21" s="166"/>
-      <c r="BM21" s="167"/>
-      <c r="BN21" s="187"/>
-      <c r="BO21" s="188"/>
-      <c r="BP21" s="188"/>
-      <c r="BQ21" s="188"/>
-      <c r="BR21" s="189"/>
-      <c r="BS21" s="219">
+      <c r="BH21" s="169"/>
+      <c r="BI21" s="169"/>
+      <c r="BJ21" s="169"/>
+      <c r="BK21" s="169"/>
+      <c r="BL21" s="169"/>
+      <c r="BM21" s="170"/>
+      <c r="BN21" s="190"/>
+      <c r="BO21" s="191"/>
+      <c r="BP21" s="191"/>
+      <c r="BQ21" s="191"/>
+      <c r="BR21" s="192"/>
+      <c r="BS21" s="222">
         <v>4</v>
       </c>
-      <c r="BT21" s="220"/>
-      <c r="BU21" s="220"/>
-      <c r="BV21" s="220"/>
-      <c r="BW21" s="221"/>
+      <c r="BT21" s="223"/>
+      <c r="BU21" s="223"/>
+      <c r="BV21" s="223"/>
+      <c r="BW21" s="224"/>
       <c r="BX21" s="14"/>
       <c r="BY21" s="14"/>
     </row>
@@ -10675,93 +11483,93 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="182" t="s">
+      <c r="E22" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="176" t="s">
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="177"/>
-      <c r="N22" s="179" t="s">
+      <c r="M22" s="180"/>
+      <c r="N22" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="181"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="184"/>
       <c r="R22" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="155">
+      <c r="S22" s="158">
         <v>20</v>
       </c>
-      <c r="T22" s="156"/>
-      <c r="U22" s="182" t="s">
+      <c r="T22" s="159"/>
+      <c r="U22" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V22" s="180"/>
-      <c r="W22" s="180"/>
-      <c r="X22" s="180"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="179"/>
-      <c r="AA22" s="180"/>
-      <c r="AB22" s="180"/>
-      <c r="AC22" s="180"/>
-      <c r="AD22" s="180"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="180"/>
-      <c r="AJ22" s="180"/>
-      <c r="AK22" s="180"/>
-      <c r="AL22" s="183"/>
-      <c r="AM22" s="215"/>
-      <c r="AN22" s="216"/>
-      <c r="AO22" s="216"/>
-      <c r="AP22" s="216"/>
-      <c r="AQ22" s="217"/>
-      <c r="AR22" s="184"/>
-      <c r="AS22" s="185"/>
-      <c r="AT22" s="185"/>
-      <c r="AU22" s="185"/>
-      <c r="AV22" s="186"/>
-      <c r="AW22" s="187"/>
-      <c r="AX22" s="188"/>
-      <c r="AY22" s="188"/>
-      <c r="AZ22" s="188"/>
-      <c r="BA22" s="189"/>
-      <c r="BB22" s="187"/>
-      <c r="BC22" s="188"/>
-      <c r="BD22" s="188"/>
-      <c r="BE22" s="188"/>
-      <c r="BF22" s="189"/>
-      <c r="BG22" s="165" t="s">
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="182"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="186"/>
+      <c r="AF22" s="185"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="183"/>
+      <c r="AJ22" s="183"/>
+      <c r="AK22" s="183"/>
+      <c r="AL22" s="186"/>
+      <c r="AM22" s="218"/>
+      <c r="AN22" s="219"/>
+      <c r="AO22" s="219"/>
+      <c r="AP22" s="219"/>
+      <c r="AQ22" s="220"/>
+      <c r="AR22" s="187"/>
+      <c r="AS22" s="188"/>
+      <c r="AT22" s="188"/>
+      <c r="AU22" s="188"/>
+      <c r="AV22" s="189"/>
+      <c r="AW22" s="190"/>
+      <c r="AX22" s="191"/>
+      <c r="AY22" s="191"/>
+      <c r="AZ22" s="191"/>
+      <c r="BA22" s="192"/>
+      <c r="BB22" s="190"/>
+      <c r="BC22" s="191"/>
+      <c r="BD22" s="191"/>
+      <c r="BE22" s="191"/>
+      <c r="BF22" s="192"/>
+      <c r="BG22" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH22" s="166"/>
-      <c r="BI22" s="166"/>
-      <c r="BJ22" s="166"/>
-      <c r="BK22" s="166"/>
-      <c r="BL22" s="166"/>
-      <c r="BM22" s="167"/>
-      <c r="BN22" s="187"/>
-      <c r="BO22" s="188"/>
-      <c r="BP22" s="188"/>
-      <c r="BQ22" s="188"/>
-      <c r="BR22" s="189"/>
-      <c r="BS22" s="219">
+      <c r="BH22" s="169"/>
+      <c r="BI22" s="169"/>
+      <c r="BJ22" s="169"/>
+      <c r="BK22" s="169"/>
+      <c r="BL22" s="169"/>
+      <c r="BM22" s="170"/>
+      <c r="BN22" s="190"/>
+      <c r="BO22" s="191"/>
+      <c r="BP22" s="191"/>
+      <c r="BQ22" s="191"/>
+      <c r="BR22" s="192"/>
+      <c r="BS22" s="222">
         <v>5</v>
       </c>
-      <c r="BT22" s="220"/>
-      <c r="BU22" s="220"/>
-      <c r="BV22" s="220"/>
-      <c r="BW22" s="221"/>
+      <c r="BT22" s="223"/>
+      <c r="BU22" s="223"/>
+      <c r="BV22" s="223"/>
+      <c r="BW22" s="224"/>
       <c r="BX22" s="14"/>
       <c r="BY22" s="14"/>
     </row>
@@ -10772,93 +11580,93 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="176" t="s">
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="177"/>
-      <c r="N23" s="179" t="s">
+      <c r="M23" s="180"/>
+      <c r="N23" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="180"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="181"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="184"/>
       <c r="R23" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="155">
+      <c r="S23" s="158">
         <v>20</v>
       </c>
-      <c r="T23" s="156"/>
-      <c r="U23" s="182" t="s">
+      <c r="T23" s="159"/>
+      <c r="U23" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="180"/>
-      <c r="W23" s="180"/>
-      <c r="X23" s="180"/>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="179"/>
-      <c r="AA23" s="180"/>
-      <c r="AB23" s="180"/>
-      <c r="AC23" s="180"/>
-      <c r="AD23" s="180"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="180"/>
-      <c r="AJ23" s="180"/>
-      <c r="AK23" s="180"/>
-      <c r="AL23" s="183"/>
-      <c r="AM23" s="215"/>
-      <c r="AN23" s="216"/>
-      <c r="AO23" s="216"/>
-      <c r="AP23" s="216"/>
-      <c r="AQ23" s="217"/>
-      <c r="AR23" s="184"/>
-      <c r="AS23" s="185"/>
-      <c r="AT23" s="185"/>
-      <c r="AU23" s="185"/>
-      <c r="AV23" s="186"/>
-      <c r="AW23" s="184"/>
-      <c r="AX23" s="185"/>
-      <c r="AY23" s="185"/>
-      <c r="AZ23" s="185"/>
-      <c r="BA23" s="186"/>
-      <c r="BB23" s="184"/>
-      <c r="BC23" s="185"/>
-      <c r="BD23" s="185"/>
-      <c r="BE23" s="185"/>
-      <c r="BF23" s="186"/>
-      <c r="BG23" s="165" t="s">
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="186"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="183"/>
+      <c r="AJ23" s="183"/>
+      <c r="AK23" s="183"/>
+      <c r="AL23" s="186"/>
+      <c r="AM23" s="218"/>
+      <c r="AN23" s="219"/>
+      <c r="AO23" s="219"/>
+      <c r="AP23" s="219"/>
+      <c r="AQ23" s="220"/>
+      <c r="AR23" s="187"/>
+      <c r="AS23" s="188"/>
+      <c r="AT23" s="188"/>
+      <c r="AU23" s="188"/>
+      <c r="AV23" s="189"/>
+      <c r="AW23" s="187"/>
+      <c r="AX23" s="188"/>
+      <c r="AY23" s="188"/>
+      <c r="AZ23" s="188"/>
+      <c r="BA23" s="189"/>
+      <c r="BB23" s="187"/>
+      <c r="BC23" s="188"/>
+      <c r="BD23" s="188"/>
+      <c r="BE23" s="188"/>
+      <c r="BF23" s="189"/>
+      <c r="BG23" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH23" s="166"/>
-      <c r="BI23" s="166"/>
-      <c r="BJ23" s="166"/>
-      <c r="BK23" s="166"/>
-      <c r="BL23" s="166"/>
-      <c r="BM23" s="167"/>
-      <c r="BN23" s="184"/>
-      <c r="BO23" s="185"/>
-      <c r="BP23" s="185"/>
-      <c r="BQ23" s="185"/>
-      <c r="BR23" s="186"/>
-      <c r="BS23" s="219">
+      <c r="BH23" s="169"/>
+      <c r="BI23" s="169"/>
+      <c r="BJ23" s="169"/>
+      <c r="BK23" s="169"/>
+      <c r="BL23" s="169"/>
+      <c r="BM23" s="170"/>
+      <c r="BN23" s="187"/>
+      <c r="BO23" s="188"/>
+      <c r="BP23" s="188"/>
+      <c r="BQ23" s="188"/>
+      <c r="BR23" s="189"/>
+      <c r="BS23" s="222">
         <v>6</v>
       </c>
-      <c r="BT23" s="220"/>
-      <c r="BU23" s="220"/>
-      <c r="BV23" s="220"/>
-      <c r="BW23" s="221"/>
+      <c r="BT23" s="223"/>
+      <c r="BU23" s="223"/>
+      <c r="BV23" s="223"/>
+      <c r="BW23" s="224"/>
       <c r="BX23" s="14"/>
       <c r="BY23" s="14"/>
     </row>
@@ -10869,95 +11677,95 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="182" t="s">
+      <c r="E24" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="176" t="s">
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="177"/>
-      <c r="N24" s="179" t="s">
+      <c r="M24" s="180"/>
+      <c r="N24" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="184"/>
       <c r="R24" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="155">
+      <c r="S24" s="158">
         <v>20</v>
       </c>
-      <c r="T24" s="156"/>
-      <c r="U24" s="182" t="s">
+      <c r="T24" s="159"/>
+      <c r="U24" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="V24" s="180"/>
-      <c r="W24" s="180"/>
-      <c r="X24" s="180"/>
-      <c r="Y24" s="181"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="180"/>
-      <c r="AB24" s="180"/>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="180"/>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="180"/>
-      <c r="AJ24" s="180"/>
-      <c r="AK24" s="180"/>
-      <c r="AL24" s="183"/>
-      <c r="AM24" s="215"/>
-      <c r="AN24" s="216"/>
-      <c r="AO24" s="216"/>
-      <c r="AP24" s="216"/>
-      <c r="AQ24" s="217"/>
-      <c r="AR24" s="184"/>
-      <c r="AS24" s="185"/>
-      <c r="AT24" s="185"/>
-      <c r="AU24" s="185"/>
-      <c r="AV24" s="186"/>
-      <c r="AW24" s="184" t="s">
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="182"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="183"/>
+      <c r="AJ24" s="183"/>
+      <c r="AK24" s="183"/>
+      <c r="AL24" s="186"/>
+      <c r="AM24" s="218"/>
+      <c r="AN24" s="219"/>
+      <c r="AO24" s="219"/>
+      <c r="AP24" s="219"/>
+      <c r="AQ24" s="220"/>
+      <c r="AR24" s="187"/>
+      <c r="AS24" s="188"/>
+      <c r="AT24" s="188"/>
+      <c r="AU24" s="188"/>
+      <c r="AV24" s="189"/>
+      <c r="AW24" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="AX24" s="185"/>
-      <c r="AY24" s="185"/>
-      <c r="AZ24" s="185"/>
-      <c r="BA24" s="186"/>
-      <c r="BB24" s="184"/>
-      <c r="BC24" s="185"/>
-      <c r="BD24" s="185"/>
-      <c r="BE24" s="185"/>
-      <c r="BF24" s="186"/>
-      <c r="BG24" s="165" t="s">
+      <c r="AX24" s="188"/>
+      <c r="AY24" s="188"/>
+      <c r="AZ24" s="188"/>
+      <c r="BA24" s="189"/>
+      <c r="BB24" s="187"/>
+      <c r="BC24" s="188"/>
+      <c r="BD24" s="188"/>
+      <c r="BE24" s="188"/>
+      <c r="BF24" s="189"/>
+      <c r="BG24" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH24" s="166"/>
-      <c r="BI24" s="166"/>
-      <c r="BJ24" s="166"/>
-      <c r="BK24" s="166"/>
-      <c r="BL24" s="166"/>
-      <c r="BM24" s="167"/>
-      <c r="BN24" s="184"/>
-      <c r="BO24" s="185"/>
-      <c r="BP24" s="185"/>
-      <c r="BQ24" s="185"/>
-      <c r="BR24" s="186"/>
-      <c r="BS24" s="219">
+      <c r="BH24" s="169"/>
+      <c r="BI24" s="169"/>
+      <c r="BJ24" s="169"/>
+      <c r="BK24" s="169"/>
+      <c r="BL24" s="169"/>
+      <c r="BM24" s="170"/>
+      <c r="BN24" s="187"/>
+      <c r="BO24" s="188"/>
+      <c r="BP24" s="188"/>
+      <c r="BQ24" s="188"/>
+      <c r="BR24" s="189"/>
+      <c r="BS24" s="222">
         <v>7</v>
       </c>
-      <c r="BT24" s="220"/>
-      <c r="BU24" s="220"/>
-      <c r="BV24" s="220"/>
-      <c r="BW24" s="221"/>
+      <c r="BT24" s="223"/>
+      <c r="BU24" s="223"/>
+      <c r="BV24" s="223"/>
+      <c r="BW24" s="224"/>
       <c r="BX24" s="14"/>
       <c r="BY24" s="14"/>
     </row>
@@ -10968,95 +11776,95 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="176" t="s">
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="177"/>
-      <c r="N25" s="179" t="s">
+      <c r="M25" s="180"/>
+      <c r="N25" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="O25" s="180"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="181"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
       <c r="R25" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="155">
+      <c r="S25" s="158">
         <v>20</v>
       </c>
-      <c r="T25" s="156"/>
-      <c r="U25" s="182" t="s">
+      <c r="T25" s="159"/>
+      <c r="U25" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="V25" s="180"/>
-      <c r="W25" s="180"/>
-      <c r="X25" s="180"/>
-      <c r="Y25" s="181"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="180"/>
-      <c r="AB25" s="180"/>
-      <c r="AC25" s="180"/>
-      <c r="AD25" s="180"/>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="180"/>
-      <c r="AJ25" s="180"/>
-      <c r="AK25" s="180"/>
-      <c r="AL25" s="183"/>
-      <c r="AM25" s="222"/>
-      <c r="AN25" s="223"/>
-      <c r="AO25" s="223"/>
-      <c r="AP25" s="223"/>
-      <c r="AQ25" s="224"/>
-      <c r="AR25" s="184"/>
-      <c r="AS25" s="185"/>
-      <c r="AT25" s="185"/>
-      <c r="AU25" s="185"/>
-      <c r="AV25" s="186"/>
-      <c r="AW25" s="215" t="s">
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="184"/>
+      <c r="Z25" s="182"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="186"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="183"/>
+      <c r="AJ25" s="183"/>
+      <c r="AK25" s="183"/>
+      <c r="AL25" s="186"/>
+      <c r="AM25" s="225"/>
+      <c r="AN25" s="226"/>
+      <c r="AO25" s="226"/>
+      <c r="AP25" s="226"/>
+      <c r="AQ25" s="227"/>
+      <c r="AR25" s="187"/>
+      <c r="AS25" s="188"/>
+      <c r="AT25" s="188"/>
+      <c r="AU25" s="188"/>
+      <c r="AV25" s="189"/>
+      <c r="AW25" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="AX25" s="216"/>
-      <c r="AY25" s="216"/>
-      <c r="AZ25" s="216"/>
-      <c r="BA25" s="217"/>
-      <c r="BB25" s="184"/>
-      <c r="BC25" s="185"/>
-      <c r="BD25" s="185"/>
-      <c r="BE25" s="185"/>
-      <c r="BF25" s="186"/>
-      <c r="BG25" s="165" t="s">
+      <c r="AX25" s="219"/>
+      <c r="AY25" s="219"/>
+      <c r="AZ25" s="219"/>
+      <c r="BA25" s="220"/>
+      <c r="BB25" s="187"/>
+      <c r="BC25" s="188"/>
+      <c r="BD25" s="188"/>
+      <c r="BE25" s="188"/>
+      <c r="BF25" s="189"/>
+      <c r="BG25" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH25" s="166"/>
-      <c r="BI25" s="166"/>
-      <c r="BJ25" s="166"/>
-      <c r="BK25" s="166"/>
-      <c r="BL25" s="166"/>
-      <c r="BM25" s="167"/>
-      <c r="BN25" s="215"/>
-      <c r="BO25" s="216"/>
-      <c r="BP25" s="216"/>
-      <c r="BQ25" s="216"/>
-      <c r="BR25" s="217"/>
-      <c r="BS25" s="219">
+      <c r="BH25" s="169"/>
+      <c r="BI25" s="169"/>
+      <c r="BJ25" s="169"/>
+      <c r="BK25" s="169"/>
+      <c r="BL25" s="169"/>
+      <c r="BM25" s="170"/>
+      <c r="BN25" s="218"/>
+      <c r="BO25" s="219"/>
+      <c r="BP25" s="219"/>
+      <c r="BQ25" s="219"/>
+      <c r="BR25" s="220"/>
+      <c r="BS25" s="222">
         <v>8</v>
       </c>
-      <c r="BT25" s="220"/>
-      <c r="BU25" s="220"/>
-      <c r="BV25" s="220"/>
-      <c r="BW25" s="221"/>
+      <c r="BT25" s="223"/>
+      <c r="BU25" s="223"/>
+      <c r="BV25" s="223"/>
+      <c r="BW25" s="224"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="14"/>
     </row>
@@ -11066,43 +11874,43 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
-      <c r="E26" s="173" t="s">
+      <c r="E26" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176" t="s">
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="177"/>
-      <c r="N26" s="178" t="s">
+      <c r="M26" s="180"/>
+      <c r="N26" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="175"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="178"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="155">
+      <c r="S26" s="158">
         <v>20</v>
       </c>
-      <c r="T26" s="156"/>
-      <c r="U26" s="173" t="s">
+      <c r="T26" s="159"/>
+      <c r="U26" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="175"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="178"/>
       <c r="Z26" s="93"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
       <c r="AF26" s="78"/>
       <c r="AG26" s="79"/>
       <c r="AH26" s="79"/>
@@ -11110,35 +11918,35 @@
       <c r="AJ26" s="79"/>
       <c r="AK26" s="79"/>
       <c r="AL26" s="80"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="158"/>
-      <c r="AP26" s="158"/>
-      <c r="AQ26" s="159"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="161"/>
+      <c r="AO26" s="161"/>
+      <c r="AP26" s="161"/>
+      <c r="AQ26" s="162"/>
       <c r="AR26" s="81"/>
       <c r="AS26" s="82"/>
       <c r="AT26" s="82"/>
       <c r="AU26" s="82"/>
       <c r="AV26" s="83"/>
       <c r="AW26" s="94"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="161"/>
-      <c r="BB26" s="162"/>
-      <c r="BC26" s="163"/>
-      <c r="BD26" s="163"/>
-      <c r="BE26" s="163"/>
-      <c r="BF26" s="164"/>
-      <c r="BG26" s="165" t="s">
+      <c r="AX26" s="163"/>
+      <c r="AY26" s="163"/>
+      <c r="AZ26" s="163"/>
+      <c r="BA26" s="164"/>
+      <c r="BB26" s="165"/>
+      <c r="BC26" s="166"/>
+      <c r="BD26" s="166"/>
+      <c r="BE26" s="166"/>
+      <c r="BF26" s="167"/>
+      <c r="BG26" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH26" s="166"/>
-      <c r="BI26" s="166"/>
-      <c r="BJ26" s="166"/>
-      <c r="BK26" s="166"/>
-      <c r="BL26" s="166"/>
-      <c r="BM26" s="167"/>
+      <c r="BH26" s="169"/>
+      <c r="BI26" s="169"/>
+      <c r="BJ26" s="169"/>
+      <c r="BK26" s="169"/>
+      <c r="BL26" s="169"/>
+      <c r="BM26" s="170"/>
       <c r="BN26" s="94"/>
       <c r="BO26" s="95"/>
       <c r="BP26" s="95"/>
@@ -11161,93 +11969,93 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="78"/>
-      <c r="E27" s="212" t="s">
+      <c r="E27" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="176" t="s">
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="179" t="s">
+      <c r="M27" s="180"/>
+      <c r="N27" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="181"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="184"/>
       <c r="R27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="155">
+      <c r="S27" s="158">
         <v>20</v>
       </c>
-      <c r="T27" s="156"/>
-      <c r="U27" s="182" t="s">
+      <c r="T27" s="159"/>
+      <c r="U27" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="180"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="180"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="179"/>
-      <c r="AA27" s="180"/>
-      <c r="AB27" s="180"/>
-      <c r="AC27" s="180"/>
-      <c r="AD27" s="180"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="180"/>
-      <c r="AJ27" s="180"/>
-      <c r="AK27" s="180"/>
-      <c r="AL27" s="183"/>
-      <c r="AM27" s="215"/>
-      <c r="AN27" s="216"/>
-      <c r="AO27" s="216"/>
-      <c r="AP27" s="216"/>
-      <c r="AQ27" s="217"/>
-      <c r="AR27" s="184"/>
-      <c r="AS27" s="185"/>
-      <c r="AT27" s="185"/>
-      <c r="AU27" s="185"/>
-      <c r="AV27" s="186"/>
-      <c r="AW27" s="184"/>
-      <c r="AX27" s="185"/>
-      <c r="AY27" s="185"/>
-      <c r="AZ27" s="185"/>
-      <c r="BA27" s="186"/>
-      <c r="BB27" s="184"/>
-      <c r="BC27" s="185"/>
-      <c r="BD27" s="185"/>
-      <c r="BE27" s="185"/>
-      <c r="BF27" s="186"/>
-      <c r="BG27" s="165" t="s">
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="184"/>
+      <c r="Z27" s="182"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="185"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="183"/>
+      <c r="AJ27" s="183"/>
+      <c r="AK27" s="183"/>
+      <c r="AL27" s="186"/>
+      <c r="AM27" s="218"/>
+      <c r="AN27" s="219"/>
+      <c r="AO27" s="219"/>
+      <c r="AP27" s="219"/>
+      <c r="AQ27" s="220"/>
+      <c r="AR27" s="187"/>
+      <c r="AS27" s="188"/>
+      <c r="AT27" s="188"/>
+      <c r="AU27" s="188"/>
+      <c r="AV27" s="189"/>
+      <c r="AW27" s="187"/>
+      <c r="AX27" s="188"/>
+      <c r="AY27" s="188"/>
+      <c r="AZ27" s="188"/>
+      <c r="BA27" s="189"/>
+      <c r="BB27" s="187"/>
+      <c r="BC27" s="188"/>
+      <c r="BD27" s="188"/>
+      <c r="BE27" s="188"/>
+      <c r="BF27" s="189"/>
+      <c r="BG27" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="BH27" s="166"/>
-      <c r="BI27" s="166"/>
-      <c r="BJ27" s="166"/>
-      <c r="BK27" s="166"/>
-      <c r="BL27" s="166"/>
-      <c r="BM27" s="167"/>
-      <c r="BN27" s="184"/>
-      <c r="BO27" s="185"/>
-      <c r="BP27" s="185"/>
-      <c r="BQ27" s="185"/>
-      <c r="BR27" s="186"/>
-      <c r="BS27" s="219">
+      <c r="BH27" s="169"/>
+      <c r="BI27" s="169"/>
+      <c r="BJ27" s="169"/>
+      <c r="BK27" s="169"/>
+      <c r="BL27" s="169"/>
+      <c r="BM27" s="170"/>
+      <c r="BN27" s="187"/>
+      <c r="BO27" s="188"/>
+      <c r="BP27" s="188"/>
+      <c r="BQ27" s="188"/>
+      <c r="BR27" s="189"/>
+      <c r="BS27" s="222">
         <v>10</v>
       </c>
-      <c r="BT27" s="220"/>
-      <c r="BU27" s="220"/>
-      <c r="BV27" s="220"/>
-      <c r="BW27" s="221"/>
+      <c r="BT27" s="223"/>
+      <c r="BU27" s="223"/>
+      <c r="BV27" s="223"/>
+      <c r="BW27" s="224"/>
       <c r="BX27" s="14"/>
       <c r="BY27" s="14"/>
     </row>
@@ -11258,85 +12066,85 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="212" t="s">
+      <c r="E28" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="176" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="177"/>
-      <c r="N28" s="179" t="s">
+      <c r="M28" s="180"/>
+      <c r="N28" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="181"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="184"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="182" t="s">
+      <c r="S28" s="158"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="180"/>
-      <c r="W28" s="180"/>
-      <c r="X28" s="180"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="180"/>
-      <c r="AB28" s="180"/>
-      <c r="AC28" s="180"/>
-      <c r="AD28" s="180"/>
-      <c r="AE28" s="183"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="180"/>
-      <c r="AJ28" s="180"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="183"/>
-      <c r="AM28" s="215"/>
-      <c r="AN28" s="216"/>
-      <c r="AO28" s="216"/>
-      <c r="AP28" s="216"/>
-      <c r="AQ28" s="217"/>
-      <c r="AR28" s="184"/>
-      <c r="AS28" s="185"/>
-      <c r="AT28" s="185"/>
-      <c r="AU28" s="185"/>
-      <c r="AV28" s="186"/>
-      <c r="AW28" s="184"/>
-      <c r="AX28" s="185"/>
-      <c r="AY28" s="185"/>
-      <c r="AZ28" s="185"/>
-      <c r="BA28" s="186"/>
-      <c r="BB28" s="184"/>
-      <c r="BC28" s="185"/>
-      <c r="BD28" s="185"/>
-      <c r="BE28" s="185"/>
-      <c r="BF28" s="186"/>
-      <c r="BG28" s="173"/>
-      <c r="BH28" s="174"/>
-      <c r="BI28" s="174"/>
-      <c r="BJ28" s="174"/>
-      <c r="BK28" s="174"/>
-      <c r="BL28" s="174"/>
-      <c r="BM28" s="211"/>
-      <c r="BN28" s="184"/>
-      <c r="BO28" s="185"/>
-      <c r="BP28" s="185"/>
-      <c r="BQ28" s="185"/>
-      <c r="BR28" s="186"/>
-      <c r="BS28" s="184"/>
-      <c r="BT28" s="185"/>
-      <c r="BU28" s="185"/>
-      <c r="BV28" s="185"/>
-      <c r="BW28" s="186"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="186"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="183"/>
+      <c r="AJ28" s="183"/>
+      <c r="AK28" s="183"/>
+      <c r="AL28" s="186"/>
+      <c r="AM28" s="218"/>
+      <c r="AN28" s="219"/>
+      <c r="AO28" s="219"/>
+      <c r="AP28" s="219"/>
+      <c r="AQ28" s="220"/>
+      <c r="AR28" s="187"/>
+      <c r="AS28" s="188"/>
+      <c r="AT28" s="188"/>
+      <c r="AU28" s="188"/>
+      <c r="AV28" s="189"/>
+      <c r="AW28" s="187"/>
+      <c r="AX28" s="188"/>
+      <c r="AY28" s="188"/>
+      <c r="AZ28" s="188"/>
+      <c r="BA28" s="189"/>
+      <c r="BB28" s="187"/>
+      <c r="BC28" s="188"/>
+      <c r="BD28" s="188"/>
+      <c r="BE28" s="188"/>
+      <c r="BF28" s="189"/>
+      <c r="BG28" s="176"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="214"/>
+      <c r="BN28" s="187"/>
+      <c r="BO28" s="188"/>
+      <c r="BP28" s="188"/>
+      <c r="BQ28" s="188"/>
+      <c r="BR28" s="189"/>
+      <c r="BS28" s="187"/>
+      <c r="BT28" s="188"/>
+      <c r="BU28" s="188"/>
+      <c r="BV28" s="188"/>
+      <c r="BW28" s="189"/>
       <c r="BX28" s="14"/>
       <c r="BY28" s="14"/>
     </row>
@@ -11347,39 +12155,39 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
-      <c r="E29" s="212" t="s">
+      <c r="E29" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="176" t="s">
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="177"/>
-      <c r="N29" s="179" t="s">
+      <c r="M29" s="180"/>
+      <c r="N29" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="181"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="184"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="211"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="184"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="214"/>
       <c r="AF29" s="78"/>
       <c r="AG29" s="79"/>
       <c r="AH29" s="79"/>
@@ -11387,43 +12195,43 @@
       <c r="AJ29" s="79"/>
       <c r="AK29" s="79"/>
       <c r="AL29" s="80"/>
-      <c r="AM29" s="208"/>
-      <c r="AN29" s="209"/>
-      <c r="AO29" s="209"/>
-      <c r="AP29" s="209"/>
-      <c r="AQ29" s="210"/>
+      <c r="AM29" s="211"/>
+      <c r="AN29" s="212"/>
+      <c r="AO29" s="212"/>
+      <c r="AP29" s="212"/>
+      <c r="AQ29" s="213"/>
       <c r="AR29" s="81"/>
       <c r="AS29" s="82"/>
       <c r="AT29" s="82"/>
       <c r="AU29" s="82"/>
       <c r="AV29" s="83"/>
-      <c r="AW29" s="212"/>
-      <c r="AX29" s="213"/>
-      <c r="AY29" s="213"/>
-      <c r="AZ29" s="213"/>
-      <c r="BA29" s="218"/>
-      <c r="BB29" s="212"/>
-      <c r="BC29" s="213"/>
-      <c r="BD29" s="213"/>
-      <c r="BE29" s="213"/>
-      <c r="BF29" s="218"/>
-      <c r="BG29" s="173"/>
-      <c r="BH29" s="174"/>
-      <c r="BI29" s="174"/>
-      <c r="BJ29" s="174"/>
-      <c r="BK29" s="174"/>
-      <c r="BL29" s="174"/>
-      <c r="BM29" s="211"/>
-      <c r="BN29" s="212"/>
-      <c r="BO29" s="213"/>
-      <c r="BP29" s="213"/>
-      <c r="BQ29" s="213"/>
-      <c r="BR29" s="218"/>
-      <c r="BS29" s="212"/>
-      <c r="BT29" s="213"/>
-      <c r="BU29" s="213"/>
-      <c r="BV29" s="213"/>
-      <c r="BW29" s="218"/>
+      <c r="AW29" s="215"/>
+      <c r="AX29" s="216"/>
+      <c r="AY29" s="216"/>
+      <c r="AZ29" s="216"/>
+      <c r="BA29" s="221"/>
+      <c r="BB29" s="215"/>
+      <c r="BC29" s="216"/>
+      <c r="BD29" s="216"/>
+      <c r="BE29" s="216"/>
+      <c r="BF29" s="221"/>
+      <c r="BG29" s="176"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="214"/>
+      <c r="BN29" s="215"/>
+      <c r="BO29" s="216"/>
+      <c r="BP29" s="216"/>
+      <c r="BQ29" s="216"/>
+      <c r="BR29" s="221"/>
+      <c r="BS29" s="215"/>
+      <c r="BT29" s="216"/>
+      <c r="BU29" s="216"/>
+      <c r="BV29" s="216"/>
+      <c r="BW29" s="221"/>
       <c r="BX29" s="14"/>
       <c r="BY29" s="14"/>
     </row>
@@ -11434,85 +12242,85 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
-      <c r="E30" s="212" t="s">
+      <c r="E30" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="176" t="s">
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="177"/>
-      <c r="N30" s="179" t="s">
+      <c r="M30" s="180"/>
+      <c r="N30" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="184"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="182" t="s">
+      <c r="S30" s="158"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="181"/>
-      <c r="Z30" s="179"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="180"/>
-      <c r="AC30" s="180"/>
-      <c r="AD30" s="180"/>
-      <c r="AE30" s="183"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="180"/>
-      <c r="AJ30" s="180"/>
-      <c r="AK30" s="180"/>
-      <c r="AL30" s="183"/>
-      <c r="AM30" s="215"/>
-      <c r="AN30" s="216"/>
-      <c r="AO30" s="216"/>
-      <c r="AP30" s="216"/>
-      <c r="AQ30" s="217"/>
-      <c r="AR30" s="184"/>
-      <c r="AS30" s="185"/>
-      <c r="AT30" s="185"/>
-      <c r="AU30" s="185"/>
-      <c r="AV30" s="186"/>
-      <c r="AW30" s="184"/>
-      <c r="AX30" s="185"/>
-      <c r="AY30" s="185"/>
-      <c r="AZ30" s="185"/>
-      <c r="BA30" s="186"/>
-      <c r="BB30" s="184"/>
-      <c r="BC30" s="185"/>
-      <c r="BD30" s="185"/>
-      <c r="BE30" s="185"/>
-      <c r="BF30" s="186"/>
-      <c r="BG30" s="173"/>
-      <c r="BH30" s="174"/>
-      <c r="BI30" s="174"/>
-      <c r="BJ30" s="174"/>
-      <c r="BK30" s="174"/>
-      <c r="BL30" s="174"/>
-      <c r="BM30" s="211"/>
-      <c r="BN30" s="184"/>
-      <c r="BO30" s="185"/>
-      <c r="BP30" s="185"/>
-      <c r="BQ30" s="185"/>
-      <c r="BR30" s="186"/>
-      <c r="BS30" s="184"/>
-      <c r="BT30" s="185"/>
-      <c r="BU30" s="185"/>
-      <c r="BV30" s="185"/>
-      <c r="BW30" s="186"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="186"/>
+      <c r="AF30" s="185"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="183"/>
+      <c r="AJ30" s="183"/>
+      <c r="AK30" s="183"/>
+      <c r="AL30" s="186"/>
+      <c r="AM30" s="218"/>
+      <c r="AN30" s="219"/>
+      <c r="AO30" s="219"/>
+      <c r="AP30" s="219"/>
+      <c r="AQ30" s="220"/>
+      <c r="AR30" s="187"/>
+      <c r="AS30" s="188"/>
+      <c r="AT30" s="188"/>
+      <c r="AU30" s="188"/>
+      <c r="AV30" s="189"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="188"/>
+      <c r="AY30" s="188"/>
+      <c r="AZ30" s="188"/>
+      <c r="BA30" s="189"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="188"/>
+      <c r="BD30" s="188"/>
+      <c r="BE30" s="188"/>
+      <c r="BF30" s="189"/>
+      <c r="BG30" s="176"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="214"/>
+      <c r="BN30" s="187"/>
+      <c r="BO30" s="188"/>
+      <c r="BP30" s="188"/>
+      <c r="BQ30" s="188"/>
+      <c r="BR30" s="189"/>
+      <c r="BS30" s="187"/>
+      <c r="BT30" s="188"/>
+      <c r="BU30" s="188"/>
+      <c r="BV30" s="188"/>
+      <c r="BW30" s="189"/>
       <c r="BX30" s="14"/>
       <c r="BY30" s="14"/>
     </row>
@@ -11523,41 +12331,41 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
-      <c r="E31" s="212" t="s">
+      <c r="E31" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="176" t="s">
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="177"/>
-      <c r="N31" s="178" t="s">
+      <c r="M31" s="180"/>
+      <c r="N31" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="175"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
       <c r="R31" s="75"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="173" t="s">
+      <c r="S31" s="158"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="175"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="211"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="214"/>
       <c r="AF31" s="78"/>
       <c r="AG31" s="79"/>
       <c r="AH31" s="79"/>
@@ -11565,43 +12373,43 @@
       <c r="AJ31" s="79"/>
       <c r="AK31" s="79"/>
       <c r="AL31" s="80"/>
-      <c r="AM31" s="208"/>
-      <c r="AN31" s="209"/>
-      <c r="AO31" s="209"/>
-      <c r="AP31" s="209"/>
-      <c r="AQ31" s="210"/>
+      <c r="AM31" s="211"/>
+      <c r="AN31" s="212"/>
+      <c r="AO31" s="212"/>
+      <c r="AP31" s="212"/>
+      <c r="AQ31" s="213"/>
       <c r="AR31" s="81"/>
       <c r="AS31" s="82"/>
       <c r="AT31" s="82"/>
       <c r="AU31" s="82"/>
       <c r="AV31" s="83"/>
-      <c r="AW31" s="208"/>
-      <c r="AX31" s="209"/>
-      <c r="AY31" s="209"/>
-      <c r="AZ31" s="209"/>
-      <c r="BA31" s="210"/>
-      <c r="BB31" s="184"/>
-      <c r="BC31" s="185"/>
-      <c r="BD31" s="185"/>
-      <c r="BE31" s="185"/>
-      <c r="BF31" s="186"/>
-      <c r="BG31" s="173"/>
-      <c r="BH31" s="174"/>
-      <c r="BI31" s="174"/>
-      <c r="BJ31" s="174"/>
-      <c r="BK31" s="174"/>
-      <c r="BL31" s="174"/>
-      <c r="BM31" s="211"/>
-      <c r="BN31" s="184"/>
-      <c r="BO31" s="185"/>
-      <c r="BP31" s="185"/>
-      <c r="BQ31" s="185"/>
-      <c r="BR31" s="186"/>
-      <c r="BS31" s="184"/>
-      <c r="BT31" s="185"/>
-      <c r="BU31" s="185"/>
-      <c r="BV31" s="185"/>
-      <c r="BW31" s="186"/>
+      <c r="AW31" s="211"/>
+      <c r="AX31" s="212"/>
+      <c r="AY31" s="212"/>
+      <c r="AZ31" s="212"/>
+      <c r="BA31" s="213"/>
+      <c r="BB31" s="187"/>
+      <c r="BC31" s="188"/>
+      <c r="BD31" s="188"/>
+      <c r="BE31" s="188"/>
+      <c r="BF31" s="189"/>
+      <c r="BG31" s="176"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="214"/>
+      <c r="BN31" s="187"/>
+      <c r="BO31" s="188"/>
+      <c r="BP31" s="188"/>
+      <c r="BQ31" s="188"/>
+      <c r="BR31" s="189"/>
+      <c r="BS31" s="187"/>
+      <c r="BT31" s="188"/>
+      <c r="BU31" s="188"/>
+      <c r="BV31" s="188"/>
+      <c r="BW31" s="189"/>
       <c r="BX31" s="14"/>
       <c r="BY31" s="14"/>
     </row>
@@ -11612,41 +12420,41 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
-      <c r="E32" s="212" t="s">
+      <c r="E32" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="176" t="s">
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="177"/>
-      <c r="N32" s="178" t="s">
+      <c r="M32" s="180"/>
+      <c r="N32" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="175"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
       <c r="R32" s="75"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="173" t="s">
+      <c r="S32" s="158"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="175"/>
-      <c r="Z32" s="178"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="211"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="214"/>
       <c r="AF32" s="78"/>
       <c r="AG32" s="79"/>
       <c r="AH32" s="79"/>
@@ -11654,43 +12462,43 @@
       <c r="AJ32" s="79"/>
       <c r="AK32" s="79"/>
       <c r="AL32" s="80"/>
-      <c r="AM32" s="208"/>
-      <c r="AN32" s="209"/>
-      <c r="AO32" s="209"/>
-      <c r="AP32" s="209"/>
-      <c r="AQ32" s="210"/>
+      <c r="AM32" s="211"/>
+      <c r="AN32" s="212"/>
+      <c r="AO32" s="212"/>
+      <c r="AP32" s="212"/>
+      <c r="AQ32" s="213"/>
       <c r="AR32" s="81"/>
       <c r="AS32" s="82"/>
       <c r="AT32" s="82"/>
       <c r="AU32" s="82"/>
       <c r="AV32" s="83"/>
-      <c r="AW32" s="208"/>
-      <c r="AX32" s="209"/>
-      <c r="AY32" s="209"/>
-      <c r="AZ32" s="209"/>
-      <c r="BA32" s="210"/>
-      <c r="BB32" s="184"/>
-      <c r="BC32" s="185"/>
-      <c r="BD32" s="185"/>
-      <c r="BE32" s="185"/>
-      <c r="BF32" s="186"/>
-      <c r="BG32" s="173"/>
-      <c r="BH32" s="174"/>
-      <c r="BI32" s="174"/>
-      <c r="BJ32" s="174"/>
-      <c r="BK32" s="174"/>
-      <c r="BL32" s="174"/>
-      <c r="BM32" s="211"/>
-      <c r="BN32" s="184"/>
-      <c r="BO32" s="185"/>
-      <c r="BP32" s="185"/>
-      <c r="BQ32" s="185"/>
-      <c r="BR32" s="186"/>
-      <c r="BS32" s="184"/>
-      <c r="BT32" s="185"/>
-      <c r="BU32" s="185"/>
-      <c r="BV32" s="185"/>
-      <c r="BW32" s="186"/>
+      <c r="AW32" s="211"/>
+      <c r="AX32" s="212"/>
+      <c r="AY32" s="212"/>
+      <c r="AZ32" s="212"/>
+      <c r="BA32" s="213"/>
+      <c r="BB32" s="187"/>
+      <c r="BC32" s="188"/>
+      <c r="BD32" s="188"/>
+      <c r="BE32" s="188"/>
+      <c r="BF32" s="189"/>
+      <c r="BG32" s="176"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="214"/>
+      <c r="BN32" s="187"/>
+      <c r="BO32" s="188"/>
+      <c r="BP32" s="188"/>
+      <c r="BQ32" s="188"/>
+      <c r="BR32" s="189"/>
+      <c r="BS32" s="187"/>
+      <c r="BT32" s="188"/>
+      <c r="BU32" s="188"/>
+      <c r="BV32" s="188"/>
+      <c r="BW32" s="189"/>
       <c r="BX32" s="14"/>
       <c r="BY32" s="14"/>
     </row>
@@ -11701,39 +12509,39 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
-      <c r="E33" s="212" t="s">
+      <c r="E33" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="176" t="s">
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M33" s="177"/>
-      <c r="N33" s="178" t="s">
+      <c r="M33" s="180"/>
+      <c r="N33" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="175"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="178"/>
       <c r="R33" s="75"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="175"/>
-      <c r="Z33" s="178"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="211"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="214"/>
       <c r="AF33" s="78"/>
       <c r="AG33" s="79"/>
       <c r="AH33" s="79"/>
@@ -11741,43 +12549,43 @@
       <c r="AJ33" s="79"/>
       <c r="AK33" s="79"/>
       <c r="AL33" s="80"/>
-      <c r="AM33" s="208"/>
-      <c r="AN33" s="209"/>
-      <c r="AO33" s="209"/>
-      <c r="AP33" s="209"/>
-      <c r="AQ33" s="210"/>
+      <c r="AM33" s="211"/>
+      <c r="AN33" s="212"/>
+      <c r="AO33" s="212"/>
+      <c r="AP33" s="212"/>
+      <c r="AQ33" s="213"/>
       <c r="AR33" s="81"/>
       <c r="AS33" s="82"/>
       <c r="AT33" s="82"/>
       <c r="AU33" s="82"/>
       <c r="AV33" s="83"/>
-      <c r="AW33" s="208"/>
-      <c r="AX33" s="209"/>
-      <c r="AY33" s="209"/>
-      <c r="AZ33" s="209"/>
-      <c r="BA33" s="210"/>
-      <c r="BB33" s="184"/>
-      <c r="BC33" s="185"/>
-      <c r="BD33" s="185"/>
-      <c r="BE33" s="185"/>
-      <c r="BF33" s="186"/>
-      <c r="BG33" s="173"/>
-      <c r="BH33" s="174"/>
-      <c r="BI33" s="174"/>
-      <c r="BJ33" s="174"/>
-      <c r="BK33" s="174"/>
-      <c r="BL33" s="174"/>
-      <c r="BM33" s="211"/>
-      <c r="BN33" s="184"/>
-      <c r="BO33" s="185"/>
-      <c r="BP33" s="185"/>
-      <c r="BQ33" s="185"/>
-      <c r="BR33" s="186"/>
-      <c r="BS33" s="184"/>
-      <c r="BT33" s="185"/>
-      <c r="BU33" s="185"/>
-      <c r="BV33" s="185"/>
-      <c r="BW33" s="186"/>
+      <c r="AW33" s="211"/>
+      <c r="AX33" s="212"/>
+      <c r="AY33" s="212"/>
+      <c r="AZ33" s="212"/>
+      <c r="BA33" s="213"/>
+      <c r="BB33" s="187"/>
+      <c r="BC33" s="188"/>
+      <c r="BD33" s="188"/>
+      <c r="BE33" s="188"/>
+      <c r="BF33" s="189"/>
+      <c r="BG33" s="176"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="214"/>
+      <c r="BN33" s="187"/>
+      <c r="BO33" s="188"/>
+      <c r="BP33" s="188"/>
+      <c r="BQ33" s="188"/>
+      <c r="BR33" s="189"/>
+      <c r="BS33" s="187"/>
+      <c r="BT33" s="188"/>
+      <c r="BU33" s="188"/>
+      <c r="BV33" s="188"/>
+      <c r="BW33" s="189"/>
       <c r="BX33" s="14"/>
       <c r="BY33" s="14"/>
     </row>
@@ -11788,39 +12596,39 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="212" t="s">
+      <c r="E34" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178" t="s">
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="217"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="175"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="178"/>
       <c r="R34" s="75"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="173" t="s">
+      <c r="S34" s="158"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="V34" s="174"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="174"/>
-      <c r="Y34" s="175"/>
-      <c r="Z34" s="178"/>
-      <c r="AA34" s="174"/>
-      <c r="AB34" s="174"/>
-      <c r="AC34" s="174"/>
-      <c r="AD34" s="174"/>
-      <c r="AE34" s="211"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="178"/>
+      <c r="Z34" s="181"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="214"/>
       <c r="AF34" s="78"/>
       <c r="AG34" s="79"/>
       <c r="AH34" s="79"/>
@@ -11828,43 +12636,43 @@
       <c r="AJ34" s="79"/>
       <c r="AK34" s="79"/>
       <c r="AL34" s="80"/>
-      <c r="AM34" s="208"/>
-      <c r="AN34" s="209"/>
-      <c r="AO34" s="209"/>
-      <c r="AP34" s="209"/>
-      <c r="AQ34" s="210"/>
+      <c r="AM34" s="211"/>
+      <c r="AN34" s="212"/>
+      <c r="AO34" s="212"/>
+      <c r="AP34" s="212"/>
+      <c r="AQ34" s="213"/>
       <c r="AR34" s="81"/>
       <c r="AS34" s="82"/>
       <c r="AT34" s="82"/>
       <c r="AU34" s="82"/>
       <c r="AV34" s="83"/>
-      <c r="AW34" s="208"/>
-      <c r="AX34" s="209"/>
-      <c r="AY34" s="209"/>
-      <c r="AZ34" s="209"/>
-      <c r="BA34" s="210"/>
-      <c r="BB34" s="184"/>
-      <c r="BC34" s="185"/>
-      <c r="BD34" s="185"/>
-      <c r="BE34" s="185"/>
-      <c r="BF34" s="186"/>
-      <c r="BG34" s="173"/>
-      <c r="BH34" s="174"/>
-      <c r="BI34" s="174"/>
-      <c r="BJ34" s="174"/>
-      <c r="BK34" s="174"/>
-      <c r="BL34" s="174"/>
-      <c r="BM34" s="211"/>
-      <c r="BN34" s="184"/>
-      <c r="BO34" s="185"/>
-      <c r="BP34" s="185"/>
-      <c r="BQ34" s="185"/>
-      <c r="BR34" s="186"/>
-      <c r="BS34" s="184"/>
-      <c r="BT34" s="185"/>
-      <c r="BU34" s="185"/>
-      <c r="BV34" s="185"/>
-      <c r="BW34" s="186"/>
+      <c r="AW34" s="211"/>
+      <c r="AX34" s="212"/>
+      <c r="AY34" s="212"/>
+      <c r="AZ34" s="212"/>
+      <c r="BA34" s="213"/>
+      <c r="BB34" s="187"/>
+      <c r="BC34" s="188"/>
+      <c r="BD34" s="188"/>
+      <c r="BE34" s="188"/>
+      <c r="BF34" s="189"/>
+      <c r="BG34" s="176"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="214"/>
+      <c r="BN34" s="187"/>
+      <c r="BO34" s="188"/>
+      <c r="BP34" s="188"/>
+      <c r="BQ34" s="188"/>
+      <c r="BR34" s="189"/>
+      <c r="BS34" s="187"/>
+      <c r="BT34" s="188"/>
+      <c r="BU34" s="188"/>
+      <c r="BV34" s="188"/>
+      <c r="BW34" s="189"/>
       <c r="BX34" s="14"/>
       <c r="BY34" s="14"/>
     </row>
@@ -11875,39 +12683,39 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
-      <c r="E35" s="212" t="s">
+      <c r="E35" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="214"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="177"/>
-      <c r="N35" s="178" t="s">
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="217"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="175"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="178"/>
       <c r="R35" s="75"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="173" t="s">
+      <c r="S35" s="158"/>
+      <c r="T35" s="159"/>
+      <c r="U35" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="V35" s="174"/>
-      <c r="W35" s="174"/>
-      <c r="X35" s="174"/>
-      <c r="Y35" s="175"/>
-      <c r="Z35" s="178"/>
-      <c r="AA35" s="174"/>
-      <c r="AB35" s="174"/>
-      <c r="AC35" s="174"/>
-      <c r="AD35" s="174"/>
-      <c r="AE35" s="211"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="178"/>
+      <c r="Z35" s="181"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="214"/>
       <c r="AF35" s="78"/>
       <c r="AG35" s="79"/>
       <c r="AH35" s="79"/>
@@ -11915,43 +12723,43 @@
       <c r="AJ35" s="79"/>
       <c r="AK35" s="79"/>
       <c r="AL35" s="80"/>
-      <c r="AM35" s="208"/>
-      <c r="AN35" s="209"/>
-      <c r="AO35" s="209"/>
-      <c r="AP35" s="209"/>
-      <c r="AQ35" s="210"/>
+      <c r="AM35" s="211"/>
+      <c r="AN35" s="212"/>
+      <c r="AO35" s="212"/>
+      <c r="AP35" s="212"/>
+      <c r="AQ35" s="213"/>
       <c r="AR35" s="81"/>
       <c r="AS35" s="82"/>
       <c r="AT35" s="82"/>
       <c r="AU35" s="82"/>
       <c r="AV35" s="83"/>
-      <c r="AW35" s="208"/>
-      <c r="AX35" s="209"/>
-      <c r="AY35" s="209"/>
-      <c r="AZ35" s="209"/>
-      <c r="BA35" s="210"/>
-      <c r="BB35" s="184"/>
-      <c r="BC35" s="185"/>
-      <c r="BD35" s="185"/>
-      <c r="BE35" s="185"/>
-      <c r="BF35" s="186"/>
-      <c r="BG35" s="173"/>
-      <c r="BH35" s="174"/>
-      <c r="BI35" s="174"/>
-      <c r="BJ35" s="174"/>
-      <c r="BK35" s="174"/>
-      <c r="BL35" s="174"/>
-      <c r="BM35" s="211"/>
-      <c r="BN35" s="184"/>
-      <c r="BO35" s="185"/>
-      <c r="BP35" s="185"/>
-      <c r="BQ35" s="185"/>
-      <c r="BR35" s="186"/>
-      <c r="BS35" s="184"/>
-      <c r="BT35" s="185"/>
-      <c r="BU35" s="185"/>
-      <c r="BV35" s="185"/>
-      <c r="BW35" s="186"/>
+      <c r="AW35" s="211"/>
+      <c r="AX35" s="212"/>
+      <c r="AY35" s="212"/>
+      <c r="AZ35" s="212"/>
+      <c r="BA35" s="213"/>
+      <c r="BB35" s="187"/>
+      <c r="BC35" s="188"/>
+      <c r="BD35" s="188"/>
+      <c r="BE35" s="188"/>
+      <c r="BF35" s="189"/>
+      <c r="BG35" s="176"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="214"/>
+      <c r="BN35" s="187"/>
+      <c r="BO35" s="188"/>
+      <c r="BP35" s="188"/>
+      <c r="BQ35" s="188"/>
+      <c r="BR35" s="189"/>
+      <c r="BS35" s="187"/>
+      <c r="BT35" s="188"/>
+      <c r="BU35" s="188"/>
+      <c r="BV35" s="188"/>
+      <c r="BW35" s="189"/>
       <c r="BX35" s="14"/>
       <c r="BY35" s="14"/>
     </row>
@@ -11962,39 +12770,39 @@
       </c>
       <c r="C36" s="84"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="199" t="s">
+      <c r="E36" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="204" t="s">
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="205"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="205"/>
+      <c r="O36" s="200"/>
+      <c r="P36" s="200"/>
+      <c r="Q36" s="208"/>
       <c r="R36" s="85"/>
-      <c r="S36" s="206"/>
-      <c r="T36" s="207"/>
-      <c r="U36" s="196" t="s">
+      <c r="S36" s="209"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="V36" s="197"/>
-      <c r="W36" s="197"/>
-      <c r="X36" s="197"/>
-      <c r="Y36" s="205"/>
-      <c r="Z36" s="204"/>
-      <c r="AA36" s="197"/>
-      <c r="AB36" s="197"/>
-      <c r="AC36" s="197"/>
-      <c r="AD36" s="197"/>
-      <c r="AE36" s="198"/>
+      <c r="V36" s="200"/>
+      <c r="W36" s="200"/>
+      <c r="X36" s="200"/>
+      <c r="Y36" s="208"/>
+      <c r="Z36" s="207"/>
+      <c r="AA36" s="200"/>
+      <c r="AB36" s="200"/>
+      <c r="AC36" s="200"/>
+      <c r="AD36" s="200"/>
+      <c r="AE36" s="201"/>
       <c r="AF36" s="84"/>
       <c r="AG36" s="86"/>
       <c r="AH36" s="86"/>
@@ -12002,43 +12810,43 @@
       <c r="AJ36" s="86"/>
       <c r="AK36" s="86"/>
       <c r="AL36" s="87"/>
-      <c r="AM36" s="190"/>
-      <c r="AN36" s="191"/>
-      <c r="AO36" s="191"/>
-      <c r="AP36" s="191"/>
-      <c r="AQ36" s="192"/>
+      <c r="AM36" s="193"/>
+      <c r="AN36" s="194"/>
+      <c r="AO36" s="194"/>
+      <c r="AP36" s="194"/>
+      <c r="AQ36" s="195"/>
       <c r="AR36" s="88"/>
       <c r="AS36" s="89"/>
       <c r="AT36" s="89"/>
       <c r="AU36" s="89"/>
       <c r="AV36" s="90"/>
-      <c r="AW36" s="190"/>
-      <c r="AX36" s="191"/>
-      <c r="AY36" s="191"/>
-      <c r="AZ36" s="191"/>
-      <c r="BA36" s="192"/>
-      <c r="BB36" s="193"/>
-      <c r="BC36" s="194"/>
-      <c r="BD36" s="194"/>
-      <c r="BE36" s="194"/>
-      <c r="BF36" s="195"/>
-      <c r="BG36" s="196"/>
-      <c r="BH36" s="197"/>
-      <c r="BI36" s="197"/>
-      <c r="BJ36" s="197"/>
-      <c r="BK36" s="197"/>
-      <c r="BL36" s="197"/>
-      <c r="BM36" s="198"/>
-      <c r="BN36" s="193"/>
-      <c r="BO36" s="194"/>
-      <c r="BP36" s="194"/>
-      <c r="BQ36" s="194"/>
-      <c r="BR36" s="195"/>
-      <c r="BS36" s="193"/>
-      <c r="BT36" s="194"/>
-      <c r="BU36" s="194"/>
-      <c r="BV36" s="194"/>
-      <c r="BW36" s="195"/>
+      <c r="AW36" s="193"/>
+      <c r="AX36" s="194"/>
+      <c r="AY36" s="194"/>
+      <c r="AZ36" s="194"/>
+      <c r="BA36" s="195"/>
+      <c r="BB36" s="196"/>
+      <c r="BC36" s="197"/>
+      <c r="BD36" s="197"/>
+      <c r="BE36" s="197"/>
+      <c r="BF36" s="198"/>
+      <c r="BG36" s="199"/>
+      <c r="BH36" s="200"/>
+      <c r="BI36" s="200"/>
+      <c r="BJ36" s="200"/>
+      <c r="BK36" s="200"/>
+      <c r="BL36" s="200"/>
+      <c r="BM36" s="201"/>
+      <c r="BN36" s="196"/>
+      <c r="BO36" s="197"/>
+      <c r="BP36" s="197"/>
+      <c r="BQ36" s="197"/>
+      <c r="BR36" s="198"/>
+      <c r="BS36" s="196"/>
+      <c r="BT36" s="197"/>
+      <c r="BU36" s="197"/>
+      <c r="BV36" s="197"/>
+      <c r="BW36" s="198"/>
       <c r="BX36" s="91"/>
       <c r="BY36" s="91"/>
     </row>
